--- a/Генетический алгоритм.xlsx
+++ b/Генетический алгоритм.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/dddea2983578ca21/Рабочий стол/Программирование/C^M^M/Genetic Algoritm/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0ADF9DAC-F23C-417D-BBF7-98D884FF9C14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="23" documentId="8_{0ADF9DAC-F23C-417D-BBF7-98D884FF9C14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A5D488E0-54F7-46E8-AB43-7152F3DD2E9E}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C082AB53-C6A5-4A1F-B622-93196C764E62}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$3:$D$3</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -32,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="38">
   <si>
     <t>количество итераций</t>
   </si>
@@ -137,6 +140,15 @@
   </si>
   <si>
     <t>плохо</t>
+  </si>
+  <si>
+    <t>точность</t>
+  </si>
+  <si>
+    <t>-0.795185</t>
+  </si>
+  <si>
+    <t>-0.0661151</t>
   </si>
 </sst>
 </file>
@@ -221,7 +233,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -251,6 +263,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -576,10 +591,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75E1C2F6-22B1-4343-A04D-787AEC804A96}">
-  <dimension ref="A1:H30"/>
+  <dimension ref="A1:H34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -595,21 +610,21 @@
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
@@ -624,36 +639,39 @@
       <c r="D3" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="F3" s="1" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A4" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="8">
-        <v>28</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>3</v>
+      <c r="A4" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="11">
+        <v>1000</v>
+      </c>
+      <c r="C4" s="11">
+        <v>0</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>4</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A5" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B5" s="6">
-        <v>34</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>4</v>
+      <c r="A5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="4">
+        <v>90</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="4">
+        <v>1</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>31</v>
@@ -662,362 +680,423 @@
       <c r="H5" s="8"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A6" s="9">
-        <v>0</v>
-      </c>
-      <c r="B6" s="9">
-        <v>14</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>7</v>
+      <c r="A6" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" s="11">
+        <v>1000</v>
+      </c>
+      <c r="C6" s="11">
+        <v>1</v>
+      </c>
+      <c r="D6" s="11">
+        <v>1</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="1">
-        <v>1000</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>4</v>
+      <c r="A7" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="8">
+        <v>28</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>3</v>
       </c>
       <c r="F7" s="9" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A8" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="9">
-        <v>15</v>
-      </c>
-      <c r="C8" s="9" t="s">
+      <c r="A8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="3">
+        <v>1000</v>
+      </c>
+      <c r="C8" s="3">
+        <v>1</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A9" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="7">
+        <v>844</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="9" t="s">
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A10" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="6">
+        <v>34</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A11" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="11">
+        <v>1000</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A12" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="11">
+        <v>1000</v>
+      </c>
+      <c r="C12" s="11" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="1">
-        <v>96</v>
-      </c>
-      <c r="C9" s="1">
-        <v>0</v>
-      </c>
-      <c r="D9" s="1" t="s">
+      <c r="D12" s="11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A13" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="11">
+        <v>1000</v>
+      </c>
+      <c r="C13" s="11">
+        <v>0</v>
+      </c>
+      <c r="D13" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A14" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="11">
+        <v>1000</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A15" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" s="11">
+        <v>1000</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A16" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="11">
+        <v>1000</v>
+      </c>
+      <c r="C16" s="11">
+        <v>0</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" s="1">
+        <v>1000</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" s="1">
+        <v>381</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A10" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="3">
-        <v>1000</v>
-      </c>
-      <c r="C10" s="3">
-        <v>1</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A11" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" s="9">
-        <v>23</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="D11" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A12" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" s="4">
-        <v>90</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D12" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A13" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" s="1">
-        <v>1000</v>
-      </c>
-      <c r="C13" s="1">
-        <v>0</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A14" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14" s="1">
-        <v>245</v>
-      </c>
-      <c r="C14" s="1">
-        <v>1</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A15" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15" s="9">
-        <v>33</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D15" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A16" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16" s="1">
-        <v>1000</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D16" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A17" s="9">
-        <v>0</v>
-      </c>
-      <c r="B17" s="9">
-        <v>17</v>
-      </c>
-      <c r="C17" s="9">
-        <v>0</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A18" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B18" s="9">
-        <v>32</v>
-      </c>
-      <c r="C18" s="9">
-        <v>1</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>6</v>
-      </c>
-    </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A19" s="9">
-        <v>0</v>
-      </c>
-      <c r="B19" s="9">
-        <v>13</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D19" s="9">
-        <v>0</v>
+      <c r="A19" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" s="11">
+        <v>51</v>
+      </c>
+      <c r="C19" s="11">
+        <v>1</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1">
+        <v>245</v>
+      </c>
+      <c r="C20" s="1">
+        <v>1</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A21" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21" s="11">
+        <v>96</v>
+      </c>
+      <c r="C21" s="11">
+        <v>0</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A22" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" s="11">
+        <v>1000</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A23" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B23" s="9">
         <v>23</v>
       </c>
-      <c r="B20" s="1">
-        <v>1000</v>
-      </c>
-      <c r="C20" s="2" t="s">
+      <c r="C23" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D23" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A24" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24" s="9">
+        <v>32</v>
+      </c>
+      <c r="C24" s="9">
+        <v>1</v>
+      </c>
+      <c r="D24" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D20" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A21" s="9">
-        <v>0</v>
-      </c>
-      <c r="B21" s="9">
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A25" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B25" s="9">
+        <v>32</v>
+      </c>
+      <c r="C25" s="9">
+        <v>1</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A26" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B26" s="9">
+        <v>15</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A27" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B27" s="9">
+        <v>51</v>
+      </c>
+      <c r="C27" s="9">
+        <v>1</v>
+      </c>
+      <c r="D27" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A28" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B28" s="9">
+        <v>33</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D28" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A29" s="9">
+        <v>0</v>
+      </c>
+      <c r="B29" s="9">
+        <v>10</v>
+      </c>
+      <c r="C29" s="9">
+        <v>0</v>
+      </c>
+      <c r="D29" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A30" s="9">
+        <v>0</v>
+      </c>
+      <c r="B30" s="9">
+        <v>14</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A31" s="9">
+        <v>0</v>
+      </c>
+      <c r="B31" s="9">
         <v>17</v>
       </c>
-      <c r="C21" s="9">
-        <v>0</v>
-      </c>
-      <c r="D21" s="9" t="s">
+      <c r="C31" s="9">
+        <v>0</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A32" s="9">
+        <v>0</v>
+      </c>
+      <c r="B32" s="9">
+        <v>13</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D32" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A33" s="9">
+        <v>0</v>
+      </c>
+      <c r="B33" s="9">
+        <v>17</v>
+      </c>
+      <c r="C33" s="9">
+        <v>0</v>
+      </c>
+      <c r="D33" s="9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A22" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22" s="9">
-        <v>32</v>
-      </c>
-      <c r="C22" s="9">
-        <v>1</v>
-      </c>
-      <c r="D22" s="9" t="s">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A34" s="9">
+        <v>0</v>
+      </c>
+      <c r="B34" s="9">
+        <v>13</v>
+      </c>
+      <c r="C34" s="9" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A23" s="9">
-        <v>0</v>
-      </c>
-      <c r="B23" s="9">
-        <v>13</v>
-      </c>
-      <c r="C23" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D23" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A24" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24" s="1">
-        <v>1000</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D24" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A25" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B25" s="1">
-        <v>1000</v>
-      </c>
-      <c r="C25" s="1">
-        <v>0</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A26" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B26" s="1">
-        <v>51</v>
-      </c>
-      <c r="C26" s="1">
-        <v>1</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A27" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B27" s="1">
-        <v>1000</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D27" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A28" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B28" s="1">
-        <v>1000</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D28" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A29" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B29" s="1">
-        <v>381</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A30" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B30" s="7">
-        <v>844</v>
-      </c>
-      <c r="C30" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D30" s="7" t="s">
-        <v>4</v>
+      <c r="D34" s="9">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A3:D3" xr:uid="{75E1C2F6-22B1-4343-A04D-787AEC804A96}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:D34">
+      <sortCondition descending="1" ref="A3"/>
+    </sortState>
+  </autoFilter>
   <mergeCells count="2">
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="B2:D2"/>
